--- a/남북한발전전력량.xlsx
+++ b/남북한발전전력량.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\socia\Documents\pandas\examples\part1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\607\ai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F5ED41-6BA0-44AB-937D-E3A9605451E1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A05AF55-3BF9-4661-B379-C59ACE8461C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18510" windowHeight="7740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="데이터" sheetId="1" r:id="rId1"/>
@@ -258,7 +258,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -581,14 +581,14 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="1" max="1" width="16.875" customWidth="1"/>
     <col min="2" max="2" width="10.75" customWidth="1"/>
-    <col min="3" max="29" width="13.6640625" customWidth="1"/>
+    <col min="3" max="29" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>37</v>
       </c>
@@ -677,7 +677,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>28</v>
       </c>
@@ -766,7 +766,7 @@
         <v>5404</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>30</v>
       </c>
@@ -855,7 +855,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>30</v>
       </c>
@@ -944,7 +944,7 @@
         <v>3523</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>30</v>
       </c>
@@ -1033,7 +1033,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>30</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>36</v>
       </c>
@@ -1211,7 +1211,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>30</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>30</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>30</v>
       </c>
